--- a/Excel-XLSX/UN-NIG.xlsx
+++ b/Excel-XLSX/UN-NIG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1055">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Mhn34D</t>
+    <t>TlZ2iV</t>
   </si>
   <si>
     <t>1976</t>
@@ -3075,7 +3075,7 @@
     <t>722</t>
   </si>
   <si>
-    <t>940</t>
+    <t>981</t>
   </si>
   <si>
     <t>723</t>
@@ -3084,10 +3084,10 @@
     <t>724</t>
   </si>
   <si>
-    <t>69481</t>
-  </si>
-  <si>
-    <t>15908</t>
+    <t>78356</t>
+  </si>
+  <si>
+    <t>28370</t>
   </si>
   <si>
     <t>725</t>
@@ -3126,12 +3126,30 @@
     <t>737</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NEP</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
     <t>738</t>
   </si>
   <si>
+    <t>14965</t>
+  </si>
+  <si>
     <t>739</t>
   </si>
   <si>
+    <t>3432959</t>
+  </si>
+  <si>
+    <t>35721</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
@@ -3144,15 +3162,15 @@
     <t>743</t>
   </si>
   <si>
-    <t>988</t>
-  </si>
-  <si>
     <t>744</t>
   </si>
   <si>
     <t>745</t>
   </si>
   <si>
+    <t>1031</t>
+  </si>
+  <si>
     <t>746</t>
   </si>
   <si>
@@ -3160,6 +3178,9 @@
   </si>
   <si>
     <t>748</t>
+  </si>
+  <si>
+    <t>749</t>
   </si>
 </sst>
 </file>
@@ -3544,7 +3565,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V749"/>
+  <dimension ref="A1:V751"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -52624,7 +52645,7 @@
         <v>33</v>
       </c>
       <c r="O722" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P722" s="2" t="s">
         <v>33</v>
@@ -52692,7 +52713,7 @@
         <v>1019</v>
       </c>
       <c r="O723" s="2" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="P723" s="2" t="s">
         <v>33</v>
@@ -52757,10 +52778,10 @@
         <v>31</v>
       </c>
       <c r="N724" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O724" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="P724" s="2" t="s">
         <v>33</v>
@@ -52843,7 +52864,7 @@
         <v>33</v>
       </c>
       <c r="T725" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="U725" s="1" t="s">
         <v>34</v>
@@ -52896,7 +52917,7 @@
         <v>52</v>
       </c>
       <c r="O726" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="P726" s="2" t="s">
         <v>33</v>
@@ -52961,10 +52982,10 @@
         <v>31</v>
       </c>
       <c r="N727" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="O727" s="2" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="P727" s="2" t="s">
         <v>33</v>
@@ -53029,10 +53050,10 @@
         <v>31</v>
       </c>
       <c r="N728" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O728" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="P728" s="2" t="s">
         <v>33</v>
@@ -53165,10 +53186,10 @@
         <v>31</v>
       </c>
       <c r="N730" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O730" s="2" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="P730" s="2" t="s">
         <v>33</v>
@@ -53369,13 +53390,13 @@
         <v>31</v>
       </c>
       <c r="N733" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O733" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P733" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q733" s="2" t="s">
         <v>33</v>
@@ -53481,16 +53502,16 @@
         <v>1016</v>
       </c>
       <c r="F735" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G735" s="1" t="s">
-        <v>925</v>
+        <v>535</v>
       </c>
       <c r="H735" s="1" t="s">
-        <v>926</v>
+        <v>536</v>
       </c>
       <c r="I735" s="1" t="s">
-        <v>926</v>
+        <v>537</v>
       </c>
       <c r="J735" s="2" t="s">
         <v>28</v>
@@ -53505,10 +53526,10 @@
         <v>31</v>
       </c>
       <c r="N735" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="O735" s="2" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="P735" s="2" t="s">
         <v>33</v>
@@ -53549,16 +53570,16 @@
         <v>1016</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="G736" s="1" t="s">
-        <v>535</v>
+        <v>118</v>
       </c>
       <c r="H736" s="1" t="s">
-        <v>536</v>
+        <v>119</v>
       </c>
       <c r="I736" s="1" t="s">
-        <v>537</v>
+        <v>119</v>
       </c>
       <c r="J736" s="2" t="s">
         <v>28</v>
@@ -53573,10 +53594,10 @@
         <v>31</v>
       </c>
       <c r="N736" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O736" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="O736" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="P736" s="2" t="s">
         <v>33</v>
@@ -53641,10 +53662,10 @@
         <v>31</v>
       </c>
       <c r="N737" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O737" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P737" s="2" t="s">
         <v>49</v>
@@ -53685,16 +53706,16 @@
         <v>1016</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G738" s="1" t="s">
-        <v>831</v>
+        <v>1036</v>
       </c>
       <c r="H738" s="1" t="s">
-        <v>832</v>
+        <v>1037</v>
       </c>
       <c r="I738" s="1" t="s">
-        <v>833</v>
+        <v>1038</v>
       </c>
       <c r="J738" s="2" t="s">
         <v>28</v>
@@ -53709,10 +53730,10 @@
         <v>31</v>
       </c>
       <c r="N738" s="2" t="s">
-        <v>1002</v>
+        <v>33</v>
       </c>
       <c r="O738" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="P738" s="2" t="s">
         <v>33</v>
@@ -53747,22 +53768,22 @@
         <v>22</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F739" s="2" t="s">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="G739" s="1" t="s">
-        <v>29</v>
+        <v>831</v>
       </c>
       <c r="H739" s="1" t="s">
-        <v>30</v>
+        <v>832</v>
       </c>
       <c r="I739" s="1" t="s">
-        <v>31</v>
+        <v>833</v>
       </c>
       <c r="J739" s="2" t="s">
         <v>28</v>
@@ -53777,16 +53798,16 @@
         <v>31</v>
       </c>
       <c r="N739" s="2" t="s">
-        <v>33</v>
+        <v>1040</v>
       </c>
       <c r="O739" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="P739" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q739" s="2" t="s">
-        <v>1005</v>
+        <v>33</v>
       </c>
       <c r="R739" s="2" t="s">
         <v>33</v>
@@ -53815,22 +53836,22 @@
         <v>22</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="G740" s="1" t="s">
-        <v>969</v>
+        <v>29</v>
       </c>
       <c r="H740" s="1" t="s">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="I740" s="1" t="s">
-        <v>970</v>
+        <v>31</v>
       </c>
       <c r="J740" s="2" t="s">
         <v>28</v>
@@ -53848,16 +53869,16 @@
         <v>33</v>
       </c>
       <c r="O740" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P740" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q740" s="2" t="s">
-        <v>33</v>
+        <v>1042</v>
       </c>
       <c r="R740" s="2" t="s">
-        <v>33</v>
+        <v>1043</v>
       </c>
       <c r="S740" s="2" t="s">
         <v>33</v>
@@ -53883,22 +53904,22 @@
         <v>22</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E741" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G741" s="1" t="s">
-        <v>316</v>
+        <v>969</v>
       </c>
       <c r="H741" s="1" t="s">
-        <v>317</v>
+        <v>970</v>
       </c>
       <c r="I741" s="1" t="s">
-        <v>317</v>
+        <v>970</v>
       </c>
       <c r="J741" s="2" t="s">
         <v>28</v>
@@ -53913,10 +53934,10 @@
         <v>31</v>
       </c>
       <c r="N741" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O741" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P741" s="2" t="s">
         <v>33</v>
@@ -53951,22 +53972,22 @@
         <v>22</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="G742" s="1" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="H742" s="1" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="I742" s="1" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="J742" s="2" t="s">
         <v>28</v>
@@ -53981,10 +54002,10 @@
         <v>31</v>
       </c>
       <c r="N742" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O742" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="P742" s="2" t="s">
         <v>33</v>
@@ -54019,22 +54040,22 @@
         <v>22</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G743" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H743" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I743" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J743" s="2" t="s">
         <v>28</v>
@@ -54049,10 +54070,10 @@
         <v>31</v>
       </c>
       <c r="N743" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="O743" s="2" t="s">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="P743" s="2" t="s">
         <v>33</v>
@@ -54087,22 +54108,22 @@
         <v>22</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F744" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G744" s="1" t="s">
-        <v>707</v>
+        <v>654</v>
       </c>
       <c r="H744" s="1" t="s">
-        <v>708</v>
+        <v>655</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>708</v>
+        <v>655</v>
       </c>
       <c r="J744" s="2" t="s">
         <v>28</v>
@@ -54117,10 +54138,10 @@
         <v>31</v>
       </c>
       <c r="N744" s="2" t="s">
-        <v>755</v>
+        <v>33</v>
       </c>
       <c r="O744" s="2" t="s">
-        <v>1042</v>
+        <v>69</v>
       </c>
       <c r="P744" s="2" t="s">
         <v>33</v>
@@ -54155,22 +54176,22 @@
         <v>22</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="G745" s="1" t="s">
-        <v>936</v>
+        <v>234</v>
       </c>
       <c r="H745" s="1" t="s">
-        <v>937</v>
+        <v>235</v>
       </c>
       <c r="I745" s="1" t="s">
-        <v>937</v>
+        <v>236</v>
       </c>
       <c r="J745" s="2" t="s">
         <v>28</v>
@@ -54185,10 +54206,10 @@
         <v>31</v>
       </c>
       <c r="N745" s="2" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="O745" s="2" t="s">
-        <v>33</v>
+        <v>919</v>
       </c>
       <c r="P745" s="2" t="s">
         <v>33</v>
@@ -54223,22 +54244,22 @@
         <v>22</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="G746" s="1" t="s">
-        <v>239</v>
+        <v>707</v>
       </c>
       <c r="H746" s="1" t="s">
-        <v>240</v>
+        <v>708</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>241</v>
+        <v>708</v>
       </c>
       <c r="J746" s="2" t="s">
         <v>28</v>
@@ -54253,10 +54274,10 @@
         <v>31</v>
       </c>
       <c r="N746" s="2" t="s">
-        <v>82</v>
+        <v>874</v>
       </c>
       <c r="O746" s="2" t="s">
-        <v>49</v>
+        <v>1050</v>
       </c>
       <c r="P746" s="2" t="s">
         <v>33</v>
@@ -54291,22 +54312,22 @@
         <v>22</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>366</v>
+        <v>159</v>
       </c>
       <c r="G747" s="1" t="s">
-        <v>811</v>
+        <v>936</v>
       </c>
       <c r="H747" s="1" t="s">
-        <v>812</v>
+        <v>937</v>
       </c>
       <c r="I747" s="1" t="s">
-        <v>812</v>
+        <v>937</v>
       </c>
       <c r="J747" s="2" t="s">
         <v>28</v>
@@ -54321,10 +54342,10 @@
         <v>31</v>
       </c>
       <c r="N747" s="2" t="s">
-        <v>639</v>
+        <v>49</v>
       </c>
       <c r="O747" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="P747" s="2" t="s">
         <v>33</v>
@@ -54359,22 +54380,22 @@
         <v>22</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F748" s="2" t="s">
-        <v>373</v>
+        <v>238</v>
       </c>
       <c r="G748" s="1" t="s">
-        <v>979</v>
+        <v>239</v>
       </c>
       <c r="H748" s="1" t="s">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="I748" s="1" t="s">
-        <v>980</v>
+        <v>241</v>
       </c>
       <c r="J748" s="2" t="s">
         <v>28</v>
@@ -54389,10 +54410,10 @@
         <v>31</v>
       </c>
       <c r="N748" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="O748" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P748" s="2" t="s">
         <v>33</v>
@@ -54427,60 +54448,196 @@
         <v>22</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="E749" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="F749" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H749" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I749" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="J749" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K749" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L749" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M749" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N749" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="O749" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P749" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q749" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R749" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S749" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T749" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U749" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V749" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H750" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I750" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="J750" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K750" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L750" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M750" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N750" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O750" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P750" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q750" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R750" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S750" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T750" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U750" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V750" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F751" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G749" s="1" t="s">
+      <c r="G751" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="H749" s="1" t="s">
+      <c r="H751" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="I749" s="1" t="s">
+      <c r="I751" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="J749" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K749" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L749" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M749" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N749" s="2" t="s">
+      <c r="J751" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K751" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L751" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M751" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N751" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O749" s="2" t="s">
+      <c r="O751" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P749" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q749" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R749" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S749" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T749" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U749" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V749" s="2" t="s">
+      <c r="P751" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q751" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R751" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S751" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T751" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U751" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V751" s="2" t="s">
         <v>33</v>
       </c>
     </row>
